--- a/Assets/Editor/Sheets/Requirements.xlsx
+++ b/Assets/Editor/Sheets/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E5017-6BD1-4639-8625-0EE17877A0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9A410-7856-4B49-9C94-8B6B5C203B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +84,10 @@
   </si>
   <si>
     <t>1;11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,16 +431,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,13 +451,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -488,7 +488,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -502,13 +502,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Editor/Sheets/Requirements.xlsx
+++ b/Assets/Editor/Sheets/Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unity\AfterDay\Assets\Editor\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC9A410-7856-4B49-9C94-8B6B5C203B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4D813A-79F6-424B-A569-6423DB5F62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t xml:space="preserve">ID </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Requirement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>search&gt;=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tags</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,6 +76,22 @@
   </si>
   <si>
     <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,15 +417,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
@@ -431,16 +436,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
@@ -488,7 +493,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -499,16 +504,33 @@
         <v>30001</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
